--- a/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-33.88367050242385</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-34.55196511804618</v>
+        <v>-34.55196511804619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.7209442109003603</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-36.42138706335722</v>
+        <v>-36.36160468388997</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-38.8476263852847</v>
+        <v>-39.04465924479204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-38.13763343147157</v>
+        <v>-38.0221175604128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-39.08964437063579</v>
+        <v>-39.08175268212038</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.762742895150713</v>
+        <v>-0.7632415813702272</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7102785873945721</v>
+        <v>-0.7110961720332402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7583697745014715</v>
+        <v>-0.7565165390748699</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7347950843282676</v>
+        <v>-0.7319469566567233</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-29.0030203582371</v>
+        <v>-29.52833343532271</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-31.07470667437193</v>
+        <v>-31.3138404693587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-29.68938451931689</v>
+        <v>-29.41242259034981</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-29.79651650649505</v>
+        <v>-30.18424808308366</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.671321499217244</v>
+        <v>-0.6746338071610685</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.6214282030900802</v>
+        <v>-0.6194916794757367</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.6591920569341096</v>
+        <v>-0.6517206849765338</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.6312974786089273</v>
+        <v>-0.6378163052636462</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>-0.3942996452885359</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3415537756248741</v>
+        <v>-0.3415537756248742</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-32.17536844565117</v>
+        <v>-32.25079731015121</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-30.19326761359876</v>
+        <v>-30.27396079442649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-26.86278094815297</v>
+        <v>-27.01250987035103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-22.47201241272445</v>
+        <v>-22.60042110802765</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5061182141790226</v>
+        <v>-0.5042164911823609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4840182365043105</v>
+        <v>-0.4856327320237944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4356944378510215</v>
+        <v>-0.4387589983081195</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3842263733366639</v>
+        <v>-0.3880748749644805</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-25.19794834425902</v>
+        <v>-25.68995409709001</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-23.60546780659166</v>
+        <v>-23.70705215498741</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-20.93675218585873</v>
+        <v>-20.81923775532047</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-16.40273856643582</v>
+        <v>-16.30686518518556</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.4155764366075231</v>
+        <v>-0.4191242352309773</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3946013425702694</v>
+        <v>-0.3969207459616425</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3521905426865786</v>
+        <v>-0.3532836811632319</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2973862733273603</v>
+        <v>-0.2975970702096193</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-29.12218369419753</v>
+        <v>-28.88015590366028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-25.43299092513946</v>
+        <v>-24.9751500870747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-23.40086702463532</v>
+        <v>-23.49055829525214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-17.84981749406385</v>
+        <v>-17.88566333516731</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4423739538908962</v>
+        <v>-0.4375901915355556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3607761618070193</v>
+        <v>-0.3560767529922886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3266387129570851</v>
+        <v>-0.3253014803774833</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.275370517953918</v>
+        <v>-0.2753360884204566</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-16.39166739508521</v>
+        <v>-16.48728153867257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-12.13640404248505</v>
+        <v>-11.6241000373882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-10.88526878427699</v>
+        <v>-11.8904589989289</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-7.446958675300147</v>
+        <v>-8.304471430244305</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2721808055014575</v>
+        <v>-0.2765767823460204</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1857411703960276</v>
+        <v>-0.1809969555294203</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1632075362723596</v>
+        <v>-0.1772016799959928</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1296635967130777</v>
+        <v>-0.1401549177635129</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-26.49751789392758</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-21.91362145618496</v>
+        <v>-21.91362145618494</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.5383516294287107</v>
@@ -949,7 +949,7 @@
         <v>-0.4479924593921702</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.384742596058235</v>
+        <v>-0.3847425960582347</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-33.19877691761889</v>
+        <v>-33.06969221613529</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-32.27102557836222</v>
+        <v>-32.4356375273653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-28.88113343156217</v>
+        <v>-28.98258418912493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-24.20108791317805</v>
+        <v>-24.07883831189903</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5672390326693914</v>
+        <v>-0.5700088779535362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5299903882178733</v>
+        <v>-0.5326071670586062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4793006307921554</v>
+        <v>-0.479044557731433</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4169663817564019</v>
+        <v>-0.4123438598009489</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-28.4798734399174</v>
+        <v>-28.56951683426512</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-27.60770601690187</v>
+        <v>-27.61376594325238</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-24.03177768944418</v>
+        <v>-24.10995919772808</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-19.65125767517455</v>
+        <v>-19.48533438881385</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.5073726280004411</v>
+        <v>-0.5091071941970714</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4699204197002564</v>
+        <v>-0.4727054970126828</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4171086431674929</v>
+        <v>-0.4163666090736945</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3539407097549778</v>
+        <v>-0.3492881711650348</v>
       </c>
     </row>
     <row r="16">
